--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_6_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_6_41.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77216.24178440509</v>
+        <v>5151068.340509111</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77216.24178440509</v>
+        <v>5151068.340509111</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1111478947.785457</v>
+        <v>40608009.48727383</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11495.39541013414</v>
+        <v>916040.3512050372</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22408.98281602174</v>
+        <v>1730154.161344259</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33312.09961814341</v>
+        <v>2544267.97148348</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>44440.39005770142</v>
+        <v>3357565.810187785</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>55568.68049725942</v>
+        <v>4170863.648892091</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>66696.96751444884</v>
+        <v>4984161.487596396</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>77825.25795400684</v>
+        <v>5797459.326300696</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>88953.54497119627</v>
+        <v>6610757.165004997</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>100081.8354107543</v>
+        <v>7424055.003709296</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>111210.1224279438</v>
+        <v>8237352.842413597</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>122338.4128675018</v>
+        <v>9050650.681117898</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>133466.6998846912</v>
+        <v>9863948.519822204</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>144594.9903242493</v>
+        <v>10677246.35852651</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>155723.2807638073</v>
+        <v>11490544.19723083</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>166851.5712033654</v>
+        <v>12303842.03593514</v>
       </c>
     </row>
   </sheetData>
